--- a/仕様書/プレイヤーの仕様書.xlsx
+++ b/仕様書/プレイヤーの仕様書.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="55">
   <si>
     <t>プレイヤーの仕様書</t>
     <rPh sb="6" eb="9">
@@ -434,13 +434,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>崩れやすくしないために</t>
-    <rPh sb="0" eb="1">
-      <t>クズ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>崩れるとき</t>
     <rPh sb="0" eb="1">
       <t>クズ</t>
@@ -613,6 +606,52 @@
     <t>部位</t>
     <rPh sb="0" eb="2">
       <t>ブイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>脚</t>
+    <rPh sb="0" eb="1">
+      <t>アシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ハンドル？</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>荷台？</t>
+    <rPh sb="0" eb="2">
+      <t>ニダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ガタガタになる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>曲がりずらくなる</t>
+    <rPh sb="0" eb="1">
+      <t>マ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>移動しずらい</t>
+    <rPh sb="0" eb="2">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かごの中のバランスが悪くなる</t>
+    <rPh sb="3" eb="4">
+      <t>ナカ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ワル</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -6044,6 +6083,285 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>476250</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>563725</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>200766</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="113" name="図 112"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="476250" y="15039975"/>
+          <a:ext cx="1506700" cy="1439016"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="21" name="直線コネクタ 20"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="523875" y="16259175"/>
+          <a:ext cx="952500" cy="19050"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>516100</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>105516</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="116" name="図 115"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3171825" y="14944725"/>
+          <a:ext cx="1506700" cy="1439016"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="117" name="直線コネクタ 116"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="4076700" y="15020925"/>
+          <a:ext cx="323850" cy="847725"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>361950</xdr:colOff>
+      <xdr:row>62</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>497050</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>134091</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="118" name="図 117"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5895975" y="14973300"/>
+          <a:ext cx="1506700" cy="1439016"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>57152</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>66</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="121" name="直線コネクタ 120"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5953125" y="15859127"/>
+          <a:ext cx="828675" cy="57148"/>
+        </a:xfrm>
+        <a:prstGeom prst="line">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:srgbClr val="FF0000"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -6314,8 +6632,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L63" sqref="L63"/>
+    <sheetView tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A88" sqref="A88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -6464,62 +6782,89 @@
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A50" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A51" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A52" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="53" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A53" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="54" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A54" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A55" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A56" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A57" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A60" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A61" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A62" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A63" t="s">
         <v>48</v>
       </c>
+      <c r="D63" t="s">
+        <v>49</v>
+      </c>
+      <c r="H63" t="s">
+        <v>50</v>
+      </c>
     </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A71" t="s">
+        <v>51</v>
+      </c>
+      <c r="D71" t="s">
+        <v>52</v>
+      </c>
+      <c r="H71" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A72" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A77" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.4">
@@ -6532,20 +6877,15 @@
         <v>33</v>
       </c>
     </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A88" t="s">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A100" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A100" t="s">
+      <c r="D100" t="s">
         <v>35</v>
       </c>
-      <c r="D100" t="s">
-        <v>36</v>
-      </c>
       <c r="F100" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/仕様書/プレイヤーの仕様書.xlsx
+++ b/仕様書/プレイヤーの仕様書.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="63">
   <si>
     <t>プレイヤーの仕様書</t>
     <rPh sb="6" eb="9">
@@ -361,23 +361,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>カートの動き（攻撃）</t>
-    <rPh sb="4" eb="5">
-      <t>ウゴ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>コウゲキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>突進</t>
-    <rPh sb="0" eb="2">
-      <t>トッシン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>衝突</t>
     <rPh sb="0" eb="2">
       <t>ショウトツ</t>
@@ -566,16 +549,6 @@
     </rPh>
     <rPh sb="33" eb="35">
       <t>テンメツ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>プレイヤーが複数乗せたと+A62:A78き</t>
-    <rPh sb="4" eb="6">
-      <t>ブイ</t>
-    </rPh>
-    <rPh sb="9" eb="12">
-      <t>タイキュウチ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -655,12 +628,140 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>カートの滑走</t>
+    <rPh sb="4" eb="6">
+      <t>カッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーが複数乗せたとき</t>
+    <rPh sb="4" eb="6">
+      <t>ブイ</t>
+    </rPh>
+    <rPh sb="9" eb="12">
+      <t>タイキュウチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カート滑走（攻撃）</t>
+    <rPh sb="3" eb="5">
+      <t>カッソウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>コウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>滑走状態ではスティックでハンドリングする</t>
+    <rPh sb="0" eb="2">
+      <t>カッソウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ドリフト？みたいな感じ</t>
+    <rPh sb="9" eb="10">
+      <t>カン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>止まるまで後ろにさがれない</t>
+    <rPh sb="0" eb="1">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ウシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>再度、滑走ボタンを押すと地面を蹴って進む</t>
+    <rPh sb="0" eb="2">
+      <t>サイド</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カッソウ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ジメン</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ケ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>スス</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>滑走中に突進（ほかのエネミーやNPCとぶつかる）</t>
+    <rPh sb="0" eb="2">
+      <t>カッソウ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>チュウ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>トッシン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>止まるには速度を落とす（スティックを後ろに入れる）</t>
+    <rPh sb="0" eb="1">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ソクド</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ウシ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ぶつかるまで止まらない</t>
+    <rPh sb="6" eb="7">
+      <t>ト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>滑走ボタンを押すと滑走モードへ</t>
+    <rPh sb="0" eb="2">
+      <t>カッソウ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>カッソウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -699,6 +800,15 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -720,10 +830,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -4469,13 +4580,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>360829</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>118</xdr:row>
       <xdr:rowOff>63314</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>833718</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>120</xdr:row>
       <xdr:rowOff>4483</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4523,13 +4634,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>860051</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>118</xdr:row>
       <xdr:rowOff>43146</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>79001</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>120</xdr:row>
       <xdr:rowOff>10649</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4575,13 +4686,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1154206</xdr:colOff>
-      <xdr:row>44</xdr:row>
+      <xdr:row>117</xdr:row>
       <xdr:rowOff>33618</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>336177</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>119</xdr:row>
       <xdr:rowOff>56029</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4619,13 +4730,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>963706</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>119</xdr:row>
       <xdr:rowOff>201706</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>257736</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>120</xdr:row>
       <xdr:rowOff>212912</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
@@ -4663,13 +4774,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>479611</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>118</xdr:row>
       <xdr:rowOff>58831</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>268941</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>120</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4717,13 +4828,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>306480</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>118</xdr:row>
       <xdr:rowOff>61077</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>265019</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>120</xdr:row>
       <xdr:rowOff>28580</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4769,13 +4880,13 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>125643</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>116</xdr:row>
       <xdr:rowOff>163134</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>72607</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>120</xdr:row>
       <xdr:rowOff>7538</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4813,13 +4924,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>150159</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>118</xdr:row>
       <xdr:rowOff>110378</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>623048</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>120</xdr:row>
       <xdr:rowOff>51547</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4867,13 +4978,13 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>638175</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>118</xdr:row>
       <xdr:rowOff>135037</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>596713</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>120</xdr:row>
       <xdr:rowOff>102540</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -4919,13 +5030,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>77191</xdr:colOff>
-      <xdr:row>41</xdr:row>
+      <xdr:row>114</xdr:row>
       <xdr:rowOff>56944</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>179331</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>116</xdr:row>
       <xdr:rowOff>216820</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -4963,13 +5074,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>22412</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>118</xdr:row>
       <xdr:rowOff>217955</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>495301</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>120</xdr:row>
       <xdr:rowOff>159124</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5017,13 +5128,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>476811</xdr:colOff>
-      <xdr:row>45</xdr:row>
+      <xdr:row>118</xdr:row>
       <xdr:rowOff>164173</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>435349</xdr:colOff>
-      <xdr:row>47</xdr:row>
+      <xdr:row>120</xdr:row>
       <xdr:rowOff>131676</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5069,13 +5180,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>341651</xdr:colOff>
-      <xdr:row>43</xdr:row>
+      <xdr:row>116</xdr:row>
       <xdr:rowOff>142110</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>443790</xdr:colOff>
-      <xdr:row>46</xdr:row>
+      <xdr:row>119</xdr:row>
       <xdr:rowOff>66663</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5307,13 +5418,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>116542</xdr:colOff>
-      <xdr:row>104</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>132790</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>589431</xdr:colOff>
-      <xdr:row>106</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>73959</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5361,13 +5472,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>537882</xdr:colOff>
-      <xdr:row>104</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>112059</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1179979</xdr:colOff>
-      <xdr:row>106</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>79562</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5413,13 +5524,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>103</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1314988</xdr:colOff>
-      <xdr:row>105</xdr:row>
+      <xdr:row>95</xdr:row>
       <xdr:rowOff>197976</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5457,13 +5568,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>101</xdr:row>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1353088</xdr:colOff>
-      <xdr:row>104</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>17001</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -5501,13 +5612,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>52106</xdr:colOff>
-      <xdr:row>99</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>57156</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>8403</xdr:colOff>
-      <xdr:row>106</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>130555</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5556,13 +5667,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>116542</xdr:colOff>
-      <xdr:row>104</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>132790</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>589431</xdr:colOff>
-      <xdr:row>106</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>73959</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5610,13 +5721,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>537882</xdr:colOff>
-      <xdr:row>104</xdr:row>
+      <xdr:row>94</xdr:row>
       <xdr:rowOff>112059</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
       <xdr:colOff>1179979</xdr:colOff>
-      <xdr:row>106</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>79562</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5662,7 +5773,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>103</xdr:row>
+      <xdr:row>93</xdr:row>
       <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="810163" cy="636126"/>
@@ -5701,7 +5812,7 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>101</xdr:row>
+      <xdr:row>91</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="810163" cy="636126"/>
@@ -5740,13 +5851,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>52106</xdr:colOff>
-      <xdr:row>99</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>57156</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
       <xdr:colOff>8403</xdr:colOff>
-      <xdr:row>106</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>130555</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5794,15 +5905,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>105</xdr:row>
-      <xdr:rowOff>28015</xdr:rowOff>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>95</xdr:row>
+      <xdr:rowOff>56590</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>106</xdr:row>
-      <xdr:rowOff>207309</xdr:rowOff>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>235884</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5811,7 +5922,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4533900" y="18211240"/>
+          <a:off x="4572000" y="22764190"/>
           <a:ext cx="409575" cy="417419"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
@@ -5847,16 +5958,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>680756</xdr:colOff>
-      <xdr:row>104</xdr:row>
-      <xdr:rowOff>26334</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>71156</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>54909</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>38099</xdr:colOff>
-      <xdr:row>105</xdr:row>
-      <xdr:rowOff>231962</xdr:rowOff>
+      <xdr:colOff>114299</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>22412</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -5865,7 +5976,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="3607279">
-          <a:off x="4985776" y="17828839"/>
+          <a:off x="5061976" y="22381789"/>
           <a:ext cx="443753" cy="728943"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5900,9 +6011,9 @@
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>542925</xdr:colOff>
-      <xdr:row>102</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="810163" cy="636126"/>
     <xdr:pic>
@@ -5926,7 +6037,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm rot="19955938" flipH="1">
-          <a:off x="4705350" y="17602200"/>
+          <a:off x="4838700" y="22164675"/>
           <a:ext cx="810163" cy="636126"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -5940,13 +6051,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>52106</xdr:colOff>
-      <xdr:row>99</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>57156</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>8403</xdr:colOff>
-      <xdr:row>106</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>130555</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -5995,7 +6106,7 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>353719</xdr:colOff>
-      <xdr:row>102</xdr:row>
+      <xdr:row>92</xdr:row>
       <xdr:rowOff>8231</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="636126" cy="810163"/>
@@ -6034,13 +6145,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>52106</xdr:colOff>
-      <xdr:row>99</xdr:row>
+      <xdr:row>89</xdr:row>
       <xdr:rowOff>57156</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>8403</xdr:colOff>
-      <xdr:row>106</xdr:row>
+      <xdr:row>96</xdr:row>
       <xdr:rowOff>130555</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -6362,6 +6473,966 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>923925</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>286027</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="125" name="正方形/長方形 124"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="923925" y="24679275"/>
+          <a:ext cx="781327" cy="1181100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1057275</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>8965</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>133349</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="133" name="楕円 132"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1057275" y="25335940"/>
+          <a:ext cx="495299" cy="686360"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="右矢印 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="1047750" y="24774525"/>
+          <a:ext cx="1714500" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>923925</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>286027</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="135" name="正方形/長方形 134"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="923925" y="24679275"/>
+          <a:ext cx="781327" cy="1181100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1057275</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>8965</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>133349</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="136" name="楕円 135"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1057275" y="25335940"/>
+          <a:ext cx="495299" cy="686360"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="137" name="右矢印 136"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="1047750" y="24774525"/>
+          <a:ext cx="1714500" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>923925</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>286027</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="138" name="正方形/長方形 137"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="923925" y="24679275"/>
+          <a:ext cx="781327" cy="1181100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1057275</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>8965</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>133349</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="139" name="楕円 138"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1057275" y="25335940"/>
+          <a:ext cx="495299" cy="686360"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="140" name="右矢印 139"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="1047750" y="24774525"/>
+          <a:ext cx="1714500" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>923925</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>286027</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="141" name="正方形/長方形 140"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="923925" y="24679275"/>
+          <a:ext cx="781327" cy="1181100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1057275</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>8965</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>133349</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="142" name="楕円 141"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1057275" y="25335940"/>
+          <a:ext cx="495299" cy="686360"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>295275</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>676275</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="143" name="右矢印 142"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="1047750" y="24774525"/>
+          <a:ext cx="1714500" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>238402</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="144" name="正方形/長方形 143"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3619500" y="24831675"/>
+          <a:ext cx="781327" cy="1104900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>106</xdr:row>
+      <xdr:rowOff>37540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>76199</xdr:colOff>
+      <xdr:row>109</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="145" name="楕円 144"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3743325" y="25364515"/>
+          <a:ext cx="495299" cy="686360"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="147" name="右矢印 146"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="4076700" y="25155525"/>
+          <a:ext cx="1295400" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>466848</xdr:colOff>
+      <xdr:row>101</xdr:row>
+      <xdr:rowOff>118270</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>30133</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>23020</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="149" name="右矢印 148"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="18989740">
+          <a:off x="4629273" y="24254620"/>
+          <a:ext cx="934885" cy="381000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>666890</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>209412</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>400190</xdr:colOff>
+      <xdr:row>102</xdr:row>
+      <xdr:rowOff>38239</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="151" name="正方形/長方形 150"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="2813149">
+          <a:off x="4305301" y="23469601"/>
+          <a:ext cx="781327" cy="1104900"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>56589</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>419099</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>28574</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="150" name="楕円 149"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="2390489">
+          <a:off x="4086225" y="23954814"/>
+          <a:ext cx="495299" cy="686360"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -6630,10 +7701,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q100"/>
+  <dimension ref="A1:Q122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A88" sqref="A88"/>
+    <sheetView tabSelected="1" topLeftCell="A133" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A101" sqref="A101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -6754,138 +7825,176 @@
         <v>22</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A38" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A42" t="s">
-        <v>27</v>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A50" t="s">
+        <v>34</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A44" t="s">
-        <v>28</v>
-      </c>
-      <c r="E44" t="s">
-        <v>29</v>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A51" t="s">
+        <v>35</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="J49" t="s">
-        <v>30</v>
-      </c>
-      <c r="N49" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A50" t="s">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A52" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A51" t="s">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A53" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A52" t="s">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A54" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A53" t="s">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A55" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A54" t="s">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A56" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A55" t="s">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A57" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A56" t="s">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A60" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A57" t="s">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A61" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A60" t="s">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A62" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A63" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A61" t="s">
+      <c r="D63" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A62" t="s">
+      <c r="H63" t="s">
         <v>47</v>
-      </c>
-    </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A63" t="s">
-        <v>48</v>
-      </c>
-      <c r="D63" t="s">
-        <v>49</v>
-      </c>
-      <c r="H63" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A71" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D71" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="H71" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A72" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A77" t="s">
-        <v>44</v>
+        <v>53</v>
       </c>
     </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A85" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A86" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.4">
+      <c r="A90" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D90" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F90" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A86" t="s">
-        <v>33</v>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A100" s="3" t="s">
+        <v>52</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A100" t="s">
-        <v>34</v>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A101" t="s">
+        <v>62</v>
       </c>
-      <c r="D100" t="s">
-        <v>35</v>
+      <c r="H101" t="s">
+        <v>56</v>
       </c>
-      <c r="F100" t="s">
-        <v>34</v>
+    </row>
+    <row r="110" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A110" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A111" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="112" spans="1:8" x14ac:dyDescent="0.4">
+      <c r="A112" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A113" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A114" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A116" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A117" t="s">
+        <v>59</v>
+      </c>
+      <c r="E117" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="J122" t="s">
+        <v>28</v>
+      </c>
+      <c r="N122" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>

--- a/仕様書/プレイヤーの仕様書.xlsx
+++ b/仕様書/プレイヤーの仕様書.xlsx
@@ -7703,8 +7703,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q122"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A101" sqref="A101"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>

--- a/仕様書/プレイヤーの仕様書.xlsx
+++ b/仕様書/プレイヤーの仕様書.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+  <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="70">
   <si>
     <t>プレイヤーの仕様書</t>
     <rPh sb="6" eb="9">
@@ -756,12 +756,85 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>かごの仕様</t>
+    <rPh sb="3" eb="5">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かご</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かごはプレイヤーが動くときに一緒に持つ</t>
+    <rPh sb="9" eb="10">
+      <t>ウゴ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>イッショ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>モ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かごの耐久度はなし</t>
+    <rPh sb="3" eb="5">
+      <t>タイキュウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カートが壊れた時に落ちる</t>
+    <rPh sb="4" eb="5">
+      <t>コワ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="9" eb="10">
+      <t>オ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーが歩いて移動するときプレイヤーの胸のあたりくらいまで持ち上げて運ぶ</t>
+    <rPh sb="6" eb="7">
+      <t>アル</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>イドウ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ムネ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ア</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>ハコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>カートのジャック</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -785,7 +858,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="16"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="游ゴシック"/>
       <family val="3"/>
@@ -794,6 +867,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="游ゴシック"/>
       <family val="3"/>
@@ -830,11 +918,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -869,7 +958,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="楕円 1"/>
+        <xdr:cNvPr id="2" name="楕円 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -923,7 +1018,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="正方形/長方形 2"/>
+        <xdr:cNvPr id="3" name="正方形/長方形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -977,7 +1078,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="5" name="直線コネクタ 4"/>
+        <xdr:cNvPr id="5" name="直線コネクタ 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1021,7 +1128,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="7" name="直線コネクタ 6"/>
+        <xdr:cNvPr id="7" name="直線コネクタ 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr>
           <a:endCxn id="2" idx="4"/>
         </xdr:cNvCxnSpPr>
@@ -1067,7 +1180,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="楕円 10"/>
+        <xdr:cNvPr id="11" name="楕円 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1121,7 +1240,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="13" name="直線コネクタ 12"/>
+        <xdr:cNvPr id="13" name="直線コネクタ 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1165,7 +1290,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="14" name="直線コネクタ 13"/>
+        <xdr:cNvPr id="14" name="直線コネクタ 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1209,7 +1340,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="正方形/長方形 3"/>
+        <xdr:cNvPr id="4" name="正方形/長方形 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1263,7 +1400,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="正方形/長方形 9"/>
+        <xdr:cNvPr id="10" name="正方形/長方形 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1317,7 +1460,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="12" name="楕円 11"/>
+        <xdr:cNvPr id="12" name="楕円 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1371,7 +1520,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="15" name="正方形/長方形 14"/>
+        <xdr:cNvPr id="15" name="正方形/長方形 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1425,7 +1580,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="16" name="楕円 15"/>
+        <xdr:cNvPr id="16" name="楕円 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1479,7 +1640,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="正方形/長方形 16"/>
+        <xdr:cNvPr id="17" name="正方形/長方形 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1533,7 +1700,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="8" name="直線矢印コネクタ 7"/>
+        <xdr:cNvPr id="8" name="直線矢印コネクタ 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -1580,7 +1753,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="楕円 17"/>
+        <xdr:cNvPr id="18" name="楕円 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1634,7 +1813,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="正方形/長方形 18"/>
+        <xdr:cNvPr id="19" name="正方形/長方形 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1688,7 +1873,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="左カーブ矢印 8"/>
+        <xdr:cNvPr id="9" name="左カーブ矢印 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1746,7 +1937,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="楕円 19"/>
+        <xdr:cNvPr id="20" name="楕円 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1800,7 +1997,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="正方形/長方形 21"/>
+        <xdr:cNvPr id="22" name="正方形/長方形 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1854,7 +2057,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="楕円 22"/>
+        <xdr:cNvPr id="23" name="楕円 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1908,7 +2117,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="正方形/長方形 23"/>
+        <xdr:cNvPr id="24" name="正方形/長方形 23">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1962,7 +2177,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="楕円 24"/>
+        <xdr:cNvPr id="25" name="楕円 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2016,7 +2237,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name="正方形/長方形 25"/>
+        <xdr:cNvPr id="26" name="正方形/長方形 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2070,7 +2297,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="27" name="楕円 26"/>
+        <xdr:cNvPr id="27" name="楕円 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2124,7 +2357,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="28" name="楕円 27"/>
+        <xdr:cNvPr id="28" name="楕円 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2178,7 +2417,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="29" name="楕円 28"/>
+        <xdr:cNvPr id="29" name="楕円 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2232,7 +2477,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="30" name="正方形/長方形 29"/>
+        <xdr:cNvPr id="30" name="正方形/長方形 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2286,7 +2537,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="31" name="正方形/長方形 30"/>
+        <xdr:cNvPr id="31" name="正方形/長方形 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2340,7 +2597,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="32" name="正方形/長方形 31"/>
+        <xdr:cNvPr id="32" name="正方形/長方形 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2394,7 +2657,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="33" name="正方形/長方形 32"/>
+        <xdr:cNvPr id="33" name="正方形/長方形 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000021000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2448,7 +2717,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="35" name="楕円 34"/>
+        <xdr:cNvPr id="35" name="楕円 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2502,7 +2777,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="36" name="正方形/長方形 35"/>
+        <xdr:cNvPr id="36" name="正方形/長方形 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000024000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2556,7 +2837,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="37" name="楕円 36"/>
+        <xdr:cNvPr id="37" name="楕円 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000025000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2610,7 +2897,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="38" name="正方形/長方形 37"/>
+        <xdr:cNvPr id="38" name="正方形/長方形 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000026000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2664,7 +2957,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="39" name="直線矢印コネクタ 38"/>
+        <xdr:cNvPr id="39" name="直線矢印コネクタ 38">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000027000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -2711,7 +3010,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="40" name="楕円 39"/>
+        <xdr:cNvPr id="40" name="楕円 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000028000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2765,7 +3070,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="41" name="正方形/長方形 40"/>
+        <xdr:cNvPr id="41" name="正方形/長方形 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000029000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2819,7 +3130,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="43" name="楕円 42"/>
+        <xdr:cNvPr id="43" name="楕円 42">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2873,7 +3190,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="44" name="正方形/長方形 43"/>
+        <xdr:cNvPr id="44" name="正方形/長方形 43">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2927,7 +3250,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="45" name="楕円 44"/>
+        <xdr:cNvPr id="45" name="楕円 44">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -2981,7 +3310,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="46" name="正方形/長方形 45"/>
+        <xdr:cNvPr id="46" name="正方形/長方形 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3035,7 +3370,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="47" name="楕円 46"/>
+        <xdr:cNvPr id="47" name="楕円 46">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3089,7 +3430,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="48" name="正方形/長方形 47"/>
+        <xdr:cNvPr id="48" name="正方形/長方形 47">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000030000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3143,7 +3490,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="49" name="楕円 48"/>
+        <xdr:cNvPr id="49" name="楕円 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000031000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3197,7 +3550,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="50" name="楕円 49"/>
+        <xdr:cNvPr id="50" name="楕円 49">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000032000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3251,7 +3610,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="51" name="楕円 50"/>
+        <xdr:cNvPr id="51" name="楕円 50">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000033000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3305,7 +3670,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="52" name="正方形/長方形 51"/>
+        <xdr:cNvPr id="52" name="正方形/長方形 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000034000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3359,7 +3730,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="53" name="正方形/長方形 52"/>
+        <xdr:cNvPr id="53" name="正方形/長方形 52">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000035000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3413,7 +3790,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="54" name="正方形/長方形 53"/>
+        <xdr:cNvPr id="54" name="正方形/長方形 53">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000036000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3467,7 +3850,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="55" name="正方形/長方形 54"/>
+        <xdr:cNvPr id="55" name="正方形/長方形 54">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000037000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3519,7 +3908,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="56" name="正方形/長方形 55"/>
+        <xdr:cNvPr id="56" name="正方形/長方形 55">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000038000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3571,7 +3966,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="57" name="正方形/長方形 56"/>
+        <xdr:cNvPr id="57" name="正方形/長方形 56">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000039000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3623,7 +4024,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="59" name="正方形/長方形 58"/>
+        <xdr:cNvPr id="59" name="正方形/長方形 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3675,7 +4082,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="60" name="上矢印 59"/>
+        <xdr:cNvPr id="60" name="上矢印 59">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3729,7 +4142,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="62" name="正方形/長方形 61"/>
+        <xdr:cNvPr id="62" name="正方形/長方形 61">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3781,7 +4200,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="63" name="正方形/長方形 62"/>
+        <xdr:cNvPr id="63" name="正方形/長方形 62">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3833,7 +4258,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="64" name="楕円 63"/>
+        <xdr:cNvPr id="64" name="楕円 63">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000040000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3887,7 +4318,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="65" name="楕円 64"/>
+        <xdr:cNvPr id="65" name="楕円 64">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000041000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3941,7 +4378,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="66" name="楕円 65"/>
+        <xdr:cNvPr id="66" name="楕円 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000042000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -3995,7 +4438,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="67" name="正方形/長方形 66"/>
+        <xdr:cNvPr id="67" name="正方形/長方形 66">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000043000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4049,7 +4498,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="68" name="正方形/長方形 67"/>
+        <xdr:cNvPr id="68" name="正方形/長方形 67">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000044000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4103,7 +4558,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="69" name="正方形/長方形 68"/>
+        <xdr:cNvPr id="69" name="正方形/長方形 68">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000045000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4157,7 +4618,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="70" name="正方形/長方形 69"/>
+        <xdr:cNvPr id="70" name="正方形/長方形 69">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000046000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4211,7 +4678,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="71" name="正方形/長方形 70"/>
+        <xdr:cNvPr id="71" name="正方形/長方形 70">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000047000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4263,7 +4736,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="72" name="左カーブ矢印 71"/>
+        <xdr:cNvPr id="72" name="左カーブ矢印 71">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000048000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4321,7 +4800,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="73" name="左カーブ矢印 72"/>
+        <xdr:cNvPr id="73" name="左カーブ矢印 72">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000049000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4383,7 +4868,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="74" name="正方形/長方形 73"/>
+        <xdr:cNvPr id="74" name="正方形/長方形 73">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4435,7 +4926,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="75" name="正方形/長方形 74"/>
+        <xdr:cNvPr id="75" name="正方形/長方形 74">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4487,7 +4984,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="76" name="正方形/長方形 75"/>
+        <xdr:cNvPr id="76" name="正方形/長方形 75">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4539,7 +5042,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="77" name="正方形/長方形 76"/>
+        <xdr:cNvPr id="77" name="正方形/長方形 76">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4591,7 +5100,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="78" name="楕円 77"/>
+        <xdr:cNvPr id="78" name="楕円 77">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4645,7 +5160,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="79" name="正方形/長方形 78"/>
+        <xdr:cNvPr id="79" name="正方形/長方形 78">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4697,7 +5218,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="81" name="直線コネクタ 80"/>
+        <xdr:cNvPr id="81" name="直線コネクタ 80">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000051000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4741,7 +5268,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="82" name="直線コネクタ 81"/>
+        <xdr:cNvPr id="82" name="直線コネクタ 81">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000052000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -4785,7 +5318,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="87" name="楕円 86"/>
+        <xdr:cNvPr id="87" name="楕円 86">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000057000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4839,7 +5378,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="88" name="正方形/長方形 87"/>
+        <xdr:cNvPr id="88" name="正方形/長方形 87">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000058000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4891,7 +5436,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="89" name="図 88"/>
+        <xdr:cNvPr id="89" name="図 88">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000059000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4935,7 +5486,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="91" name="楕円 90"/>
+        <xdr:cNvPr id="91" name="楕円 90">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -4989,7 +5546,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="92" name="正方形/長方形 91"/>
+        <xdr:cNvPr id="92" name="正方形/長方形 91">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5041,7 +5604,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="93" name="図 92"/>
+        <xdr:cNvPr id="93" name="図 92">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5085,7 +5654,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="94" name="楕円 93"/>
+        <xdr:cNvPr id="94" name="楕円 93">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5139,7 +5714,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="95" name="正方形/長方形 94"/>
+        <xdr:cNvPr id="95" name="正方形/長方形 94">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5191,7 +5772,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="96" name="図 95"/>
+        <xdr:cNvPr id="96" name="図 95">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000060000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5235,7 +5822,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="97" name="楕円 96"/>
+        <xdr:cNvPr id="97" name="楕円 96">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000061000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5289,7 +5882,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="98" name="正方形/長方形 97"/>
+        <xdr:cNvPr id="98" name="正方形/長方形 97">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000062000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5341,7 +5940,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="99" name="図 98"/>
+        <xdr:cNvPr id="99" name="図 98">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000063000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5385,7 +5990,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="100" name="図 99"/>
+        <xdr:cNvPr id="100" name="図 99">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000064000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5429,7 +6040,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="101" name="楕円 100"/>
+        <xdr:cNvPr id="101" name="楕円 100">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000065000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5483,7 +6100,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="102" name="正方形/長方形 101"/>
+        <xdr:cNvPr id="102" name="正方形/長方形 101">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000066000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5535,7 +6158,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="103" name="図 102"/>
+        <xdr:cNvPr id="103" name="図 102">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000067000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5579,7 +6208,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="104" name="図 103"/>
+        <xdr:cNvPr id="104" name="図 103">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000068000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5623,7 +6258,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="105" name="正方形/長方形 104"/>
+        <xdr:cNvPr id="105" name="正方形/長方形 104">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000069000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5678,7 +6319,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="106" name="楕円 105"/>
+        <xdr:cNvPr id="106" name="楕円 105">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5732,7 +6379,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="107" name="正方形/長方形 106"/>
+        <xdr:cNvPr id="107" name="正方形/長方形 106">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5779,7 +6432,13 @@
     <xdr:ext cx="810163" cy="636126"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="108" name="図 107"/>
+        <xdr:cNvPr id="108" name="図 107">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5818,7 +6477,13 @@
     <xdr:ext cx="810163" cy="636126"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="109" name="図 108"/>
+        <xdr:cNvPr id="109" name="図 108">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5862,7 +6527,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="110" name="正方形/長方形 109"/>
+        <xdr:cNvPr id="110" name="正方形/長方形 109">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5917,7 +6588,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="111" name="楕円 110"/>
+        <xdr:cNvPr id="111" name="楕円 110">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -5971,7 +6648,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="112" name="正方形/長方形 111"/>
+        <xdr:cNvPr id="112" name="正方形/長方形 111">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000070000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6018,7 +6701,13 @@
     <xdr:ext cx="810163" cy="636126"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="114" name="図 113"/>
+        <xdr:cNvPr id="114" name="図 113">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000072000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -6062,7 +6751,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="115" name="正方形/長方形 114"/>
+        <xdr:cNvPr id="115" name="正方形/長方形 114">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000073000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6112,7 +6807,13 @@
     <xdr:ext cx="636126" cy="810163"/>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="119" name="図 118"/>
+        <xdr:cNvPr id="119" name="図 118">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000077000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -6156,7 +6857,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="120" name="正方形/長方形 119"/>
+        <xdr:cNvPr id="120" name="正方形/長方形 119">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000078000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6211,7 +6918,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="113" name="図 112"/>
+        <xdr:cNvPr id="113" name="図 112">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000071000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -6255,7 +6968,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="21" name="直線コネクタ 20"/>
+        <xdr:cNvPr id="21" name="直線コネクタ 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -6304,7 +7023,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="116" name="図 115"/>
+        <xdr:cNvPr id="116" name="図 115">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000074000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -6348,7 +7073,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="117" name="直線コネクタ 116"/>
+        <xdr:cNvPr id="117" name="直線コネクタ 116">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000075000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -6397,7 +7128,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="118" name="図 117"/>
+        <xdr:cNvPr id="118" name="図 117">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000076000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -6441,7 +7178,13 @@
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="121" name="直線コネクタ 120"/>
+        <xdr:cNvPr id="121" name="直線コネクタ 120">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000079000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
@@ -6490,7 +7233,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="125" name="正方形/長方形 124"/>
+        <xdr:cNvPr id="125" name="正方形/長方形 124">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6542,7 +7291,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="133" name="楕円 132"/>
+        <xdr:cNvPr id="133" name="楕円 132">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000085000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6596,7 +7351,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="右矢印 5"/>
+        <xdr:cNvPr id="6" name="右矢印 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6650,7 +7411,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="135" name="正方形/長方形 134"/>
+        <xdr:cNvPr id="135" name="正方形/長方形 134">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000087000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6702,7 +7469,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="136" name="楕円 135"/>
+        <xdr:cNvPr id="136" name="楕円 135">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000088000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6756,7 +7529,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="137" name="右矢印 136"/>
+        <xdr:cNvPr id="137" name="右矢印 136">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000089000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6810,7 +7589,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="138" name="正方形/長方形 137"/>
+        <xdr:cNvPr id="138" name="正方形/長方形 137">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6862,7 +7647,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="139" name="楕円 138"/>
+        <xdr:cNvPr id="139" name="楕円 138">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6916,7 +7707,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="140" name="右矢印 139"/>
+        <xdr:cNvPr id="140" name="右矢印 139">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -6970,7 +7767,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="141" name="正方形/長方形 140"/>
+        <xdr:cNvPr id="141" name="正方形/長方形 140">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7022,7 +7825,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="142" name="楕円 141"/>
+        <xdr:cNvPr id="142" name="楕円 141">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7076,7 +7885,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="143" name="右矢印 142"/>
+        <xdr:cNvPr id="143" name="右矢印 142">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7130,7 +7945,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="144" name="正方形/長方形 143"/>
+        <xdr:cNvPr id="144" name="正方形/長方形 143">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000090000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7182,7 +8003,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="145" name="楕円 144"/>
+        <xdr:cNvPr id="145" name="楕円 144">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000091000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7236,7 +8063,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="147" name="右矢印 146"/>
+        <xdr:cNvPr id="147" name="右矢印 146">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000093000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7290,7 +8123,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="149" name="右矢印 148"/>
+        <xdr:cNvPr id="149" name="右矢印 148">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000095000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7344,7 +8183,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="151" name="正方形/長方形 150"/>
+        <xdr:cNvPr id="151" name="正方形/長方形 150">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000097000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7396,7 +8241,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="150" name="楕円 149"/>
+        <xdr:cNvPr id="150" name="楕円 149">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000096000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -7419,6 +8270,663 @@
         </a:fillRef>
         <a:effectRef idx="0">
           <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>860051</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>159127</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>79001</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>126630</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="129" name="正方形/長方形 128">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D73260D2-2F0F-43EE-BDF9-E7CE30B4D29F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="957262" y="10625141"/>
+          <a:ext cx="443753" cy="638175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1012451</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>73402</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>231401</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>40905</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="130" name="正方形/長方形 129">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{36DB4647-D726-4776-8F30-4ACD36C38461}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="1109662" y="10777541"/>
+          <a:ext cx="443753" cy="638175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1164851</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>225802</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>383801</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>193305</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="131" name="正方形/長方形 130">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{717AA054-A9AB-40D2-9A3B-198C7EFABC79}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="1262062" y="10929941"/>
+          <a:ext cx="443753" cy="638175"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>626409</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>12893</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>584947</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>218521</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="132" name="正方形/長方形 131">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21195E1D-47F0-4E31-8D63-2914DFF1742D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="6946526" y="10713951"/>
+          <a:ext cx="443753" cy="644338"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>526115</xdr:colOff>
+      <xdr:row>199</xdr:row>
+      <xdr:rowOff>131673</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>449916</xdr:colOff>
+      <xdr:row>203</xdr:row>
+      <xdr:rowOff>36421</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="148" name="正方形/長方形 147">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F7EF8A6-A82E-4FBC-9640-EDE3FACA0410}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="769004" y="47361384"/>
+          <a:ext cx="857248" cy="1343026"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>9532</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>152405</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="152" name="正方形/長方形 151">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30BC7000-71B3-462A-987F-3A3E0EC82EA3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="757239" y="29856118"/>
+          <a:ext cx="857248" cy="1343025"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>640415</xdr:colOff>
+      <xdr:row>199</xdr:row>
+      <xdr:rowOff>217402</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>335615</xdr:colOff>
+      <xdr:row>202</xdr:row>
+      <xdr:rowOff>207873</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="153" name="正方形/長方形 152">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{29F5B3F5-8F72-44DF-BE5F-6FA819EFBF72}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="845205" y="47485212"/>
+          <a:ext cx="704846" cy="1114425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>628649</xdr:colOff>
+      <xdr:row>126</xdr:row>
+      <xdr:rowOff>95258</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>323849</xdr:colOff>
+      <xdr:row>129</xdr:row>
+      <xdr:rowOff>85728</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="154" name="正方形/長方形 153">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A7A6E935-D81B-4009-B38C-5F903B5AB18E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="833439" y="29979943"/>
+          <a:ext cx="704845" cy="1114425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>360829</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>179295</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>833718</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>120464</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="155" name="楕円 154">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38CDF32B-FC01-4709-A340-68136D589B13}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="360829" y="10742520"/>
+          <a:ext cx="472889" cy="417419"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>127</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>549089</xdr:colOff>
+      <xdr:row>128</xdr:row>
+      <xdr:rowOff>188819</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="156" name="楕円 155">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F10D9954-166F-40EB-A2DF-C4DEF799D3E9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="76200" y="30337125"/>
+          <a:ext cx="472889" cy="417419"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>666749</xdr:colOff>
+      <xdr:row>122</xdr:row>
+      <xdr:rowOff>95258</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>409574</xdr:colOff>
+      <xdr:row>125</xdr:row>
+      <xdr:rowOff>85728</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="157" name="正方形/長方形 156">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9AA63978-0D45-425B-A1A9-C5381443654B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="4348164" y="29027443"/>
+          <a:ext cx="704845" cy="1114425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="lt1"/>
@@ -7700,20 +9208,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q122"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:Q138"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" topLeftCell="A133" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B140" sqref="B140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="18.625" customWidth="1"/>
+    <col min="1" max="1" width="18.625" style="1" customWidth="1"/>
+    <col min="2" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="I1" s="2" t="s">
@@ -7721,280 +9230,313 @@
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A2" t="s">
+      <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A3" t="s">
+      <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A4" t="s">
+      <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J4" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="D5" t="s">
+      <c r="D5" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="B7" t="s">
+      <c r="B7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="O7" t="s">
+      <c r="O7" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A14" t="s">
+      <c r="A14" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.4">
-      <c r="A15" t="s">
+      <c r="A15" s="1" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="D17" t="s">
+      <c r="D17" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A20" t="s">
+      <c r="A20" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="21" spans="1:17" ht="25.5" x14ac:dyDescent="0.5">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="1" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A22" t="s">
+      <c r="A22" s="1" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A25" t="s">
+      <c r="A25" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="H25" t="s">
+      <c r="H25" s="1" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A26" t="s">
+      <c r="A26" s="1" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="A27" t="s">
+      <c r="A27" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="Q27" t="s">
+      <c r="Q27" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.4">
-      <c r="B28" t="s">
+      <c r="B28" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E28" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="K28" t="s">
+      <c r="K28" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A38" t="s">
+      <c r="A38" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A50" t="s">
+      <c r="A50" s="1" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A51" t="s">
+      <c r="A51" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A52" t="s">
+      <c r="A52" s="1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A53" t="s">
+      <c r="A53" s="1" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A54" t="s">
+      <c r="A54" s="1" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A55" t="s">
+      <c r="A55" s="1" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A56" t="s">
+      <c r="A56" s="1" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A57" t="s">
+      <c r="A57" s="1" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A60" t="s">
+      <c r="A60" s="1" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A61" t="s">
+      <c r="A61" s="1" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A62" t="s">
+      <c r="A62" s="1" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A63" t="s">
+      <c r="A63" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D63" t="s">
+      <c r="D63" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="H63" t="s">
+      <c r="H63" s="1" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A71" t="s">
+      <c r="A71" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D71" t="s">
+      <c r="D71" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H71" t="s">
+      <c r="H71" s="1" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A72" t="s">
+      <c r="A72" s="1" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A77" t="s">
+      <c r="A77" s="1" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A85" t="s">
+      <c r="A85" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A86" t="s">
+      <c r="A86" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.4">
-      <c r="A90" s="3" t="s">
+      <c r="A90" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D90" s="3" t="s">
+      <c r="D90" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="F90" s="3" t="s">
+      <c r="F90" s="4" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A100" s="3" t="s">
+      <c r="A100" s="4" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A101" t="s">
+      <c r="A101" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="H101" t="s">
+      <c r="H101" s="1" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A110" t="s">
+      <c r="A110" s="1" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A111" t="s">
+      <c r="A111" s="1" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.4">
-      <c r="A112" t="s">
+      <c r="A112" s="1" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A113" t="s">
+      <c r="A113" s="1" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A114" t="s">
+      <c r="A114" s="1" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A116" t="s">
+      <c r="A116" s="1" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="A117" t="s">
+      <c r="A117" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E117" t="s">
+      <c r="E117" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.4">
-      <c r="J122" t="s">
+      <c r="J122" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="N122" t="s">
+      <c r="N122" s="1" t="s">
         <v>29</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14" x14ac:dyDescent="0.4">
+      <c r="A124" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A131" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A132" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A133" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A134" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A138" s="1" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>

--- a/仕様書/プレイヤーの仕様書.xlsx
+++ b/仕様書/プレイヤーの仕様書.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="77">
   <si>
     <t>プレイヤーの仕様書</t>
     <rPh sb="6" eb="9">
@@ -190,23 +190,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <r>
-      <t>↳</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>カート</t>
-    </r>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>↳ステージ在中のもの</t>
     <rPh sb="5" eb="7">
       <t>ザイチュウ</t>
@@ -829,12 +812,105 @@
     <t>カートのジャック</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <r>
+      <t>↳</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>カート</t>
+    </r>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エネミー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>プレイヤーの特定の範囲にカートがあるときかごを投げるこができる</t>
+    <rPh sb="6" eb="8">
+      <t>トクテイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ハンイ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かごを投げつけることによって相手のカートを奪う</t>
+    <rPh sb="3" eb="4">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>アイテ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ウバ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>相手は吹き飛んだかごを拾いに行く</t>
+    <rPh sb="0" eb="2">
+      <t>アイテ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>フ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ト</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ヒロ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>１８０度、距離調整次第</t>
+    <rPh sb="3" eb="4">
+      <t>ド</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>キョリ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>チョウセイ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シダイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジャックしたあとウィリーして加速する</t>
+    <rPh sb="14" eb="16">
+      <t>カソク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -897,6 +973,14 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -918,12 +1002,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -8927,6 +9012,1174 @@
         </a:fillRef>
         <a:effectRef idx="1">
           <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1279071</xdr:colOff>
+      <xdr:row>143</xdr:row>
+      <xdr:rowOff>13607</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>522514</xdr:colOff>
+      <xdr:row>146</xdr:row>
+      <xdr:rowOff>156481</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="146" name="正方形/長方形 145">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{07D78C86-B263-4532-BB2D-5E494FB8585B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="1509713" y="34889394"/>
+          <a:ext cx="877659" cy="1338943"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>16326</xdr:colOff>
+      <xdr:row>143</xdr:row>
+      <xdr:rowOff>99344</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>446312</xdr:colOff>
+      <xdr:row>146</xdr:row>
+      <xdr:rowOff>89815</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="158" name="正方形/長方形 157">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A13638B8-918E-4203-A326-26B1D80D8207}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="1624013" y="35013229"/>
+          <a:ext cx="725256" cy="1110343"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1336221</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>206828</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>579664</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>104773</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="159" name="正方形/長方形 158">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE26DABC-0C15-4B57-8F25-C72ECB85DBA3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="1566863" y="33613043"/>
+          <a:ext cx="877659" cy="1338943"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>73476</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>47638</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>503462</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>38109</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="160" name="正方形/長方形 159">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73B14A39-F980-4D28-BAC5-0238D380A258}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="1681163" y="33736880"/>
+          <a:ext cx="725256" cy="1110343"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>143</xdr:row>
+      <xdr:rowOff>197302</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>59231</xdr:colOff>
+      <xdr:row>145</xdr:row>
+      <xdr:rowOff>131668</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="161" name="楕円 160">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10E5B6DD-A178-43B4-A210-4DB3C3CA55E9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4403271" y="35303731"/>
+          <a:ext cx="472889" cy="424223"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>214993</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>23132</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>7524</xdr:colOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>202426</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="162" name="楕円 161">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B28E974-3C97-4A7F-A222-E1469DAC3479}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4351564" y="34149846"/>
+          <a:ext cx="472889" cy="424223"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>449035</xdr:colOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>54429</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>353785</xdr:colOff>
+      <xdr:row>149</xdr:row>
+      <xdr:rowOff>122464</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="34" name="楕円 33">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1CC48281-2B69-4586-951D-E6F9299A96CC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4585606" y="34426072"/>
+          <a:ext cx="1265465" cy="2272392"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:srgbClr val="00B0F0"/>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>816428</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1289317</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>1041</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="163" name="楕円 162">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03AED913-BE65-4DA0-84F3-0117013934EC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="816428" y="34193389"/>
+          <a:ext cx="472889" cy="424223"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>772885</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>200024</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1245774</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>134390</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="164" name="楕円 163">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D118F28-55FE-44EE-98FA-04FA517D4628}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="772885" y="35061524"/>
+          <a:ext cx="472889" cy="424223"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>217715</xdr:colOff>
+      <xdr:row>143</xdr:row>
+      <xdr:rowOff>40822</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>51708</xdr:colOff>
+      <xdr:row>146</xdr:row>
+      <xdr:rowOff>183696</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="165" name="正方形/長方形 164">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8100E328-654E-4AE2-A92B-8A06CE23B4F6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="9275310" y="34988727"/>
+          <a:ext cx="877659" cy="1194708"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>364672</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>240844</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>157204</xdr:colOff>
+      <xdr:row>140</xdr:row>
+      <xdr:rowOff>175210</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="166" name="楕円 165">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1861240-D0FB-456B-B223-DB504055FE90}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8583386" y="34122630"/>
+          <a:ext cx="472889" cy="424223"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>16326</xdr:colOff>
+      <xdr:row>143</xdr:row>
+      <xdr:rowOff>99344</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>446312</xdr:colOff>
+      <xdr:row>146</xdr:row>
+      <xdr:rowOff>89815</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="167" name="正方形/長方形 166">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FA56DB12-F9BB-45AE-A8A0-046F44B75E43}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="1624013" y="35013229"/>
+          <a:ext cx="725256" cy="1110343"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>293234</xdr:colOff>
+      <xdr:row>133</xdr:row>
+      <xdr:rowOff>86418</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>338132</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>217047</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="168" name="正方形/長方形 167">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4AAB6084-94E4-4E5A-8D7F-58B9751A78E0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="2421995">
+          <a:off x="9192305" y="32743561"/>
+          <a:ext cx="725256" cy="1110343"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>125186</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>220436</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>16329</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>118381</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="169" name="正方形/長方形 168">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4248EA11-1962-4D17-AC24-434B90136DE3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="9211356" y="33670194"/>
+          <a:ext cx="877659" cy="1251858"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>340179</xdr:colOff>
+      <xdr:row>134</xdr:row>
+      <xdr:rowOff>202746</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>132711</xdr:colOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>137111</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="170" name="楕円 169">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BE89F2C-FCD8-4438-AB59-F14F88EC5507}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8558893" y="33104817"/>
+          <a:ext cx="472889" cy="424223"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FF0000"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>155119</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>61245</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>585104</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>51716</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="171" name="正方形/長方形 170">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67783616-B05A-47C3-AD3E-29341DF8B59B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="9246734" y="33750487"/>
+          <a:ext cx="725256" cy="1110343"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>468086</xdr:colOff>
+      <xdr:row>137</xdr:row>
+      <xdr:rowOff>223158</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>359229</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>121103</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="172" name="正方形/長方形 171">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F7A6F8A-AD27-4B74-BEDD-2A97F40F8A13}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="3012679">
+          <a:off x="14316756" y="33672916"/>
+          <a:ext cx="877659" cy="1251858"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>511626</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>77575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>261254</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>68046</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="173" name="正方形/長方形 172">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FACF22B4-8D11-4269-83D5-E7082D858AC9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="3000936">
+          <a:off x="14365741" y="33766817"/>
+          <a:ext cx="725256" cy="1110343"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>40822</xdr:colOff>
+      <xdr:row>139</xdr:row>
+      <xdr:rowOff>243566</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>513711</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>177932</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="174" name="楕円 173">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9946AADB-4A5E-459D-ADED-92615509E274}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13702393" y="34370280"/>
+          <a:ext cx="472889" cy="424223"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="lt1"/>
@@ -9209,10 +10462,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q138"/>
+  <dimension ref="A1:T149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B140" sqref="B140"/>
+    <sheetView tabSelected="1" topLeftCell="A132" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="T145" sqref="T145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -9226,7 +10479,7 @@
         <v>0</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.4">
@@ -9266,7 +10519,7 @@
         <v>10</v>
       </c>
       <c r="O7" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.4">
@@ -9281,7 +10534,7 @@
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.4">
       <c r="D17" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.4">
@@ -9291,15 +10544,15 @@
     </row>
     <row r="21" spans="1:17" ht="25.5" x14ac:dyDescent="0.5">
       <c r="A21" s="3" t="s">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.4">
@@ -9307,20 +10560,20 @@
         <v>4</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.4">
       <c r="A27" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="Q27" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.4">
@@ -9328,215 +10581,246 @@
         <v>8</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="K28" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.4">
       <c r="A38" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A50" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A51" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A52" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A53" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A54" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A55" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A56" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A57" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A60" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A61" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A62" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A63" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D63" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D63" s="1" t="s">
+      <c r="H63" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="H63" s="1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A71" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D71" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D71" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="H71" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A72" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A77" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A85" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A86" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A90" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D90" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D90" s="4" t="s">
-        <v>33</v>
-      </c>
       <c r="F90" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A100" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A101" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A110" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A111" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A112" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="113" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A113" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="114" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A114" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="116" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A116" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="117" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A117" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="122" spans="1:14" x14ac:dyDescent="0.4">
       <c r="J122" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="N122" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="124" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A124" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E124" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="E124" s="1" t="s">
+    </row>
+    <row r="131" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A131" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A131" s="1" t="s">
+    <row r="132" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A132" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A132" s="1" t="s">
+    <row r="133" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A133" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A133" s="1" t="s">
+    <row r="134" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A134" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A134" s="1" t="s">
+    <row r="138" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A138" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.4">
-      <c r="A138" s="1" t="s">
-        <v>69</v>
+    <row r="140" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A140" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="143" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="A143" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="144" spans="1:20" x14ac:dyDescent="0.4">
+      <c r="T144" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A148" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K148" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A149" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="K149" s="1" t="s">
+        <v>74</v>
       </c>
     </row>
   </sheetData>

--- a/仕様書/プレイヤーの仕様書.xlsx
+++ b/仕様書/プレイヤーの仕様書.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18528"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="80">
   <si>
     <t>プレイヤーの仕様書</t>
     <rPh sb="6" eb="9">
@@ -902,6 +902,54 @@
     <t>ジャックしたあとウィリーして加速する</t>
     <rPh sb="14" eb="16">
       <t>カソク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>かごを投げてカートにあったたとき</t>
+    <rPh sb="3" eb="4">
+      <t>ナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自分のカートを超えて奪取してかごの乗ったカートまでオート走る（結構はやく走る）</t>
+    <rPh sb="0" eb="2">
+      <t>ジブン</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ダッシュ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>ノ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ハシ</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ケッコウ</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>ハシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>この時集中線のエフェクトを出す</t>
+    <rPh sb="2" eb="3">
+      <t>トキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シュウチュウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>セン</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ダ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1002,13 +1050,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -9705,14 +9754,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>16326</xdr:colOff>
-      <xdr:row>143</xdr:row>
-      <xdr:rowOff>99344</xdr:rowOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>153774</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
       <xdr:colOff>446312</xdr:colOff>
-      <xdr:row>146</xdr:row>
-      <xdr:rowOff>89815</xdr:rowOff>
+      <xdr:row>145</xdr:row>
+      <xdr:rowOff>144244</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -9727,7 +9776,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm rot="5400000">
-          <a:off x="1624013" y="35013229"/>
+          <a:off x="1624013" y="34822730"/>
           <a:ext cx="725256" cy="1110343"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -10164,6 +10213,434 @@
         <a:xfrm>
           <a:off x="13702393" y="34370280"/>
           <a:ext cx="472889" cy="424223"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>680357</xdr:colOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>68035</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>408213</xdr:colOff>
+      <xdr:row>160</xdr:row>
+      <xdr:rowOff>95252</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="175" name="正方形/長方形 174">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BEDA352-C0CA-41D0-92DE-7DFCADCE766B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="1088569" y="37950323"/>
+          <a:ext cx="1006931" cy="1823356"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>971549</xdr:colOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>224536</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>666749</xdr:colOff>
+      <xdr:row>159</xdr:row>
+      <xdr:rowOff>215006</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="176" name="正方形/長方形 175">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7116ABF7-02C7-4CA0-BA23-324D81DF7243}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="1164093" y="38322492"/>
+          <a:ext cx="725256" cy="1110343"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFF00"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>136071</xdr:colOff>
+      <xdr:row>157</xdr:row>
+      <xdr:rowOff>148317</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>608960</xdr:colOff>
+      <xdr:row>159</xdr:row>
+      <xdr:rowOff>82683</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="177" name="楕円 176">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0CC5C266-0D69-4174-86BA-B06BDD494435}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="136071" y="38683746"/>
+          <a:ext cx="472889" cy="424223"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>625929</xdr:colOff>
+      <xdr:row>153</xdr:row>
+      <xdr:rowOff>163286</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>462643</xdr:colOff>
+      <xdr:row>157</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="矢印: 右 41">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14763CFC-79B8-4D80-B9A5-4F32CD6D10A6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="625929" y="37719000"/>
+          <a:ext cx="6694714" cy="816429"/>
+        </a:xfrm>
+        <a:prstGeom prst="rightArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>250372</xdr:colOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>127911</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>353786</xdr:colOff>
+      <xdr:row>160</xdr:row>
+      <xdr:rowOff>25856</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="180" name="正方形/長方形 179">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{13BEBA44-B666-4F6D-B119-756FB8E1AF5F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="8081963" y="38125177"/>
+          <a:ext cx="877659" cy="1464128"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent2"/>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>429984</xdr:colOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>213648</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>179613</xdr:colOff>
+      <xdr:row>159</xdr:row>
+      <xdr:rowOff>204118</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="181" name="正方形/長方形 180">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D9685AC-CD04-45F4-B0A7-9D4E6356838E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="8160885" y="38311604"/>
+          <a:ext cx="725256" cy="1110343"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="accent1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="3">
+          <a:schemeClr val="lt1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent3"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>519793</xdr:colOff>
+      <xdr:row>154</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>639536</xdr:colOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>163286</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="182" name="楕円 181">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3F57E65A-CA0D-4469-89F5-75695BB47464}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3976007" y="37829218"/>
+          <a:ext cx="800100" cy="624568"/>
         </a:xfrm>
         <a:prstGeom prst="ellipse">
           <a:avLst/>
@@ -10462,10 +10939,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T149"/>
+  <dimension ref="A1:T164"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A132" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="T145" sqref="T145"/>
+    <sheetView tabSelected="1" topLeftCell="A141" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A165" sqref="A165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -10823,6 +11300,21 @@
         <v>74</v>
       </c>
     </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.4">
+      <c r="A153" s="6" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A163" s="6" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.4">
+      <c r="A164" s="6" t="s">
+        <v>79</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
